--- a/PBR Issue AugSept2019/2020-4-23 LDB permits not migrated (version 11-TK edit).xlsx
+++ b/PBR Issue AugSept2019/2020-4-23 LDB permits not migrated (version 11-TK edit).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\repos\solid-waste-migration\PBR Issue AugSept2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8E939-5583-4093-A49A-FF4ED8431338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5A3AE2-FCD4-4678-B456-8C49DE983BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-105" windowWidth="19440" windowHeight="15000" tabRatio="695" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="695" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="2" r:id="rId1"/>
@@ -29739,8 +29739,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4905" topLeftCell="S1" activePane="topRight"/>
-      <selection activeCell="C19" sqref="C19"/>
-      <selection pane="topRight" activeCell="S19" sqref="S19"/>
+      <selection activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30905,24 +30905,29 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:20" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <v>10779</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="H21" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="S21" s="30" t="s">
+      <c r="K21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="S21" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="T21" s="39" t="s">
+      <c r="T21" s="40" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -30968,24 +30973,29 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:20" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>149872</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="S24" s="29" t="s">
+      <c r="K24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="S24" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="T24" s="39" t="s">
+      <c r="T24" s="40" t="s">
         <v>1415</v>
       </c>
     </row>
